--- a/Översikt OCKELBO.xlsx
+++ b/Översikt OCKELBO.xlsx
@@ -572,7 +572,7 @@
         <v>44088</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45068</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43518</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43787</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44047</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>44462</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43383</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43391</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43411</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43420</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43420</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43420</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43448</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43483</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43490</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43490</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43502</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43507</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43528</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43553</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43553</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43579</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43623</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43647</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43647</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43647</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43649</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43650</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43650</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43668</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43675</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>43691</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>43696</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>43697</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43699</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43713</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43721</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43732</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43747</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43748</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43748</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43748</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43748</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43753</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43755</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43756</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43762</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43766</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43766</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43766</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43796</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43796</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>43797</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43808</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43808</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43837</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>43840</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43840</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43843</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43854</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43878</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43880</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43906</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>43912</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>43915</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43948</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43955</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43983</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43984</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44012</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44020</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44036</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44036</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44047</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44049</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>44053</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>44068</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44071</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>44074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44083</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>44088</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>44097</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>44098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44098</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>44129</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>44151</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         <v>44165</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         <v>44168</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>44168</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>44169</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44176</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44176</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44179</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44188</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44208</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44239</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44239</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44239</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44239</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44250</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>44256</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>44308</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>44323</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44334</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44337</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44343</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>44371</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44377</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44383</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44384</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44391</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44403</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44411</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44414</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44418</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44425</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44440</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44440</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44447</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44460</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44462</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44462</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44462</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44462</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44488</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44488</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44492</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44496</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44503</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44509</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44517</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>44518</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>44519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44538</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44543</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>44586</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44588</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44607</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44659</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44662</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44662</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44692</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44725</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44729</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>44735</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44797</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44805</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44812</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44817</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44820</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44820</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44820</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44820</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44838</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44839</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44841</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44845</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44858</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44858</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44879</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44887</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44907</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44915</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>44929</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>44949</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44950</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44953</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44964</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44970</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44986</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>45022</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45022</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45022</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45022</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45033</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45033</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>45044</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>45056</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>45056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>45058</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>45062</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45063</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45069</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45069</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45072</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45073</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>45107</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45128</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>45134</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>45134</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45134</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45160</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45162</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>45162</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>

--- a/Översikt OCKELBO.xlsx
+++ b/Översikt OCKELBO.xlsx
@@ -572,7 +572,7 @@
         <v>44088</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45068</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43518</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43787</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44047</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>44462</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43383</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43391</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43411</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43420</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43420</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43420</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43448</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43483</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43490</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43490</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43502</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43507</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43528</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43553</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43553</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43579</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43623</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43647</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43647</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43647</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43649</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43650</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43650</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43668</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43675</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>43691</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>43696</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>43697</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43699</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43713</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43721</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43732</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43747</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43748</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43748</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43748</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43748</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43753</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43755</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43756</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43762</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43766</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43766</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43766</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43796</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43796</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>43797</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43808</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43808</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43837</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>43840</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43840</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43843</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43854</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43878</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43880</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43906</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>43912</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>43915</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43948</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43955</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43983</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43984</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44012</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44020</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44036</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44036</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44047</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44049</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>44053</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>44068</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44071</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>44074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44083</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>44088</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>44097</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>44098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44098</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>44129</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>44151</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         <v>44165</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         <v>44168</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>44168</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>44169</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44176</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44176</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44179</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44188</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44208</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44239</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44239</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44239</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44239</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44250</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>44256</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>44308</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>44323</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44334</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44337</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44343</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>44371</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44377</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44383</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44384</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44391</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44403</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44411</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44414</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44418</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44425</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44440</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44440</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44447</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44460</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44462</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44462</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44462</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44462</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44488</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44488</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44492</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44496</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44503</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44509</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44517</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>44518</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>44519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44538</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44543</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>44586</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44588</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44607</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44659</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44662</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44662</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44692</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44725</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44729</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>44735</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44797</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44805</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44812</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44817</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44820</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44820</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44820</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44820</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44838</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44839</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44841</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44845</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44858</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44858</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44879</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44887</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44907</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44915</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>44929</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>44949</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44950</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44953</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44964</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44970</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44986</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>45022</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45022</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45022</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45022</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45033</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45033</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>45044</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>45056</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>45056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>45058</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>45062</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45063</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45069</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45069</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45072</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45073</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>45107</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45128</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>45134</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>45134</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45134</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45160</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45162</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>45162</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>

--- a/Översikt OCKELBO.xlsx
+++ b/Översikt OCKELBO.xlsx
@@ -572,7 +572,7 @@
         <v>44088</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45068</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43518</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43787</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44047</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>44462</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43383</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43391</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43411</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43420</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43420</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43420</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43448</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43483</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43490</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43490</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43502</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43507</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43528</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43553</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43553</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43579</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43623</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43647</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43647</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43647</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43649</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43650</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43650</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43668</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43675</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>43691</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>43696</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>43697</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43699</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43713</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43721</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43732</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43747</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43748</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43748</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43748</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43748</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43753</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43755</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43756</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43762</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43766</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43766</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43766</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43796</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43796</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>43797</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43808</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43808</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43837</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>43840</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43840</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43843</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43854</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43878</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43880</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43906</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>43912</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>43915</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43948</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43955</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43983</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43984</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44012</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44020</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44036</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44036</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44047</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44049</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>44053</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>44068</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44071</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>44074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44083</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>44088</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>44097</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>44098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44098</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>44129</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>44151</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         <v>44165</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         <v>44168</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>44168</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>44169</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44176</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44176</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44179</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44188</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44208</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44239</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44239</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44239</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44239</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44250</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>44256</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>44308</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>44323</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44334</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44337</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44343</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>44371</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44377</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44383</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44384</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44391</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44403</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44411</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44414</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44418</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44425</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44440</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44440</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44447</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44460</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44462</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44462</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44462</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44462</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44488</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44488</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44492</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44496</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44503</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44509</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44517</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>44518</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>44519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44538</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44543</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>44586</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44588</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44607</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44659</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44662</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44662</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44692</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44725</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44729</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>44735</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44797</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44805</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44812</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44817</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44820</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44820</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44820</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44820</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44838</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44839</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44841</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44845</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44858</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44858</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44879</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44887</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44907</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44915</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>44929</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>44949</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44950</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44953</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44964</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44970</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44986</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>45022</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45022</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45022</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45022</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45033</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45033</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>45044</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>45056</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>45056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>45058</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>45062</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45063</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45069</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45069</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45072</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45073</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>45107</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45128</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>45134</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>45134</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45134</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45160</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45162</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>45162</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>

--- a/Översikt OCKELBO.xlsx
+++ b/Översikt OCKELBO.xlsx
@@ -572,7 +572,7 @@
         <v>44088</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45068</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43518</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43787</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44047</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>44462</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43383</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43391</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43411</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43420</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43420</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43420</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43448</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43483</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43490</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43490</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43502</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43507</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43528</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43553</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43553</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43579</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43623</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43647</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43647</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43647</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43649</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43650</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43650</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43668</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43675</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>43691</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>43696</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>43697</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43699</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43713</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43721</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43732</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43747</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43748</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43748</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43748</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43748</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43753</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43755</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43756</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43762</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43766</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43766</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43766</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43796</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43796</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>43797</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43808</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43808</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43837</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>43840</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43840</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43843</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43854</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43878</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43880</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43906</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>43912</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>43915</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43948</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43955</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43983</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43984</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44012</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44020</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44036</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44036</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44047</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44049</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>44053</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>44068</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44071</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>44074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44083</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>44088</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>44097</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>44098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44098</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>44129</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>44151</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         <v>44165</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         <v>44168</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>44168</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>44169</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44176</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44176</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44179</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44188</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44208</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44239</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44239</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44239</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44239</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44250</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>44256</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>44308</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>44323</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44334</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44337</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44343</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>44371</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44377</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44383</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44384</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44391</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44403</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44411</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44414</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44418</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44425</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44440</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44440</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44447</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44460</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44462</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44462</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44462</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44462</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44488</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44488</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44492</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44496</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44503</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44509</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44517</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>44518</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>44519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44538</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44543</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>44586</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44588</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44607</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44659</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44662</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44662</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44692</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44725</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44729</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>44735</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44797</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44805</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44812</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44817</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44820</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44820</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44820</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44820</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44838</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44839</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44841</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44845</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44858</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44858</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44879</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44887</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44907</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44915</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>44929</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>44949</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44950</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44953</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44964</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44970</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44986</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>45022</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45022</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45022</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45022</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45033</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45033</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>45044</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>45056</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>45056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>45058</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>45062</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45063</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45069</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45069</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45072</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45073</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>45107</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45128</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>45134</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>45134</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45134</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45160</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45162</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>45162</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>

--- a/Översikt OCKELBO.xlsx
+++ b/Översikt OCKELBO.xlsx
@@ -572,7 +572,7 @@
         <v>44088</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45068</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43518</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43787</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44047</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>44462</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43383</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43391</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43411</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43420</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43420</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43420</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43448</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43483</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43490</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43490</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43502</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43507</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43528</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43553</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43553</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43579</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43623</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43647</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43647</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43647</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43649</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43650</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43650</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43668</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43675</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>43691</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>43696</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>43697</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43699</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43713</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43721</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43732</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43747</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43748</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43748</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43748</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43748</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43753</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43755</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43756</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43762</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43766</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43766</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43766</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43796</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43796</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>43797</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43808</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43808</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43837</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>43840</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43840</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43843</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43854</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43878</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43880</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43906</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>43912</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>43915</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43948</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43955</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43983</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43984</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44012</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44020</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44036</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44036</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44047</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44049</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>44053</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>44068</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44071</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>44074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44083</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>44088</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>44097</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>44098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44098</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>44129</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>44151</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         <v>44165</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         <v>44168</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>44168</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>44169</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44176</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44176</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44179</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44188</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44208</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44239</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44239</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44239</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44239</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44250</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>44256</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>44308</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>44323</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44334</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44337</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44343</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>44371</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44377</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44383</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44384</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44391</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44403</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44411</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44414</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44418</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44425</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44440</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44440</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44447</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44460</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44462</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44462</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44462</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44462</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44488</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44488</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44492</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44496</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44503</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44509</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44517</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>44518</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>44519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44538</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44543</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>44586</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44588</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44607</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44659</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44662</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44662</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44692</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44725</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44729</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>44735</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44797</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44805</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44812</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44817</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44820</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44820</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44820</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44820</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44838</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44839</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44841</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44845</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44858</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44858</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44879</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44887</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44907</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44915</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>44929</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>44949</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44950</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44953</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44964</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44970</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44986</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>45022</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45022</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45022</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45022</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45033</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45033</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>45044</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>45056</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>45056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>45058</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>45062</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45063</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45069</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45069</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45072</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45073</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>45107</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45128</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>45134</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>45134</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45134</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45160</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45162</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>45162</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>

--- a/Översikt OCKELBO.xlsx
+++ b/Översikt OCKELBO.xlsx
@@ -572,7 +572,7 @@
         <v>44088</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45068</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43518</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43787</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44047</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>44462</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43383</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43391</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43411</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43420</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43420</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43420</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43448</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43483</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43490</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43490</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43502</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43507</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43528</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43553</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43553</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43579</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43623</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43647</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43647</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43647</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43649</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43650</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43650</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43668</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43675</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>43691</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>43696</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>43697</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43699</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43713</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43721</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43732</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43747</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43748</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43748</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43748</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43748</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43753</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43755</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43756</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43762</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43766</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43766</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43766</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43796</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43796</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>43797</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43808</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43808</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43837</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>43840</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43840</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43843</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43854</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43878</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43880</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43906</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>43912</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>43915</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43948</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43955</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43983</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43984</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44012</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44020</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44036</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44036</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44047</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44049</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>44053</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>44068</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44071</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>44074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44083</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>44088</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>44097</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>44098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44098</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>44129</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>44151</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         <v>44165</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         <v>44168</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>44168</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>44169</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44176</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44176</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44179</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44188</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44208</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44239</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44239</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44239</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44239</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44250</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>44256</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>44308</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>44323</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44334</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44337</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44343</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>44371</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44377</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44383</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44384</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44391</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44403</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44411</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44414</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44418</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44425</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44440</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44440</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44447</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44460</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44462</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44462</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44462</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44462</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44488</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44488</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44492</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44496</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44503</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44509</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44517</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>44518</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>44519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44538</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44543</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>44586</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44588</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44607</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44659</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44662</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44662</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44692</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44725</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44729</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>44735</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44797</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44805</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44812</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44817</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44820</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44820</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44820</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44820</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44838</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44839</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44841</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44845</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44858</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44858</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44879</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44887</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44907</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44915</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>44929</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>44949</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44950</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44953</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44964</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44970</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44986</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>45022</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45022</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45022</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45022</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45033</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45033</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>45044</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>45056</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>45056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>45058</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>45062</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45063</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45069</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45069</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45072</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45073</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>45107</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45128</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>45134</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>45134</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45134</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45160</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45162</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>45162</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>

--- a/Översikt OCKELBO.xlsx
+++ b/Översikt OCKELBO.xlsx
@@ -572,7 +572,7 @@
         <v>44088</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45068</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43518</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43787</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44047</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>44462</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43383</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43391</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43411</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43420</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43420</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43420</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43448</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43483</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43490</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43490</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43502</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43507</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43528</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43553</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43553</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43579</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43623</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43647</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43647</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43647</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43649</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43650</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43650</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43668</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43675</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>43691</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>43696</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>43697</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43699</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43713</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43721</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43732</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43747</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43748</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43748</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43748</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43748</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43753</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43755</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43756</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43762</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43766</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43766</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43766</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43796</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43796</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>43797</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43808</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43808</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43837</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>43840</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43840</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43843</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43854</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43878</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43880</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43906</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>43912</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>43915</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43948</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43955</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43983</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43984</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44012</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44020</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44036</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44036</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44047</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44049</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>44053</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>44068</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44071</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>44074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44083</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>44088</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>44097</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>44098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44098</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>44129</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>44151</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         <v>44165</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         <v>44168</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>44168</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>44169</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44176</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44176</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44179</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44188</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44208</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44239</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44239</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44239</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44239</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44250</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>44256</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>44308</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>44323</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44334</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44337</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44343</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>44371</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44377</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44383</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44384</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44391</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44403</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44411</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44414</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44418</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44425</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44440</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44440</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44447</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44460</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44462</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44462</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44462</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44462</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44488</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44488</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44492</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44496</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44503</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44509</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44517</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>44518</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>44519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44538</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44543</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>44586</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44588</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44607</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44659</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44662</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44662</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44692</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44725</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44729</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>44735</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44797</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44805</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44812</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44817</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44820</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44820</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44820</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44820</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44838</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44839</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44841</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44845</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44858</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44858</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44879</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44887</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44907</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44915</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>44929</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>44949</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44950</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44953</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44964</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44970</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44986</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>45022</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45022</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45022</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45022</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45033</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45033</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>45044</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>45056</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>45056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>45058</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>45062</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45063</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45069</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45069</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45072</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45073</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>45107</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45128</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>45134</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>45134</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45134</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45160</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45162</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>45162</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>

--- a/Översikt OCKELBO.xlsx
+++ b/Översikt OCKELBO.xlsx
@@ -572,7 +572,7 @@
         <v>44088</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45068</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43518</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43787</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44047</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>44462</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43383</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43391</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43411</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43420</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43420</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43420</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43448</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43483</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43490</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43490</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43502</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43507</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43528</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43553</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43553</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43579</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43623</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43647</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43647</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43647</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43649</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43650</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43650</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43668</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43675</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>43691</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>43696</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>43697</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43699</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43713</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43721</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43732</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43747</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43748</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43748</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43748</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43748</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43753</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43755</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43756</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43762</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43766</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43766</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43766</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43796</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43796</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>43797</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43808</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43808</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43837</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>43840</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43840</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43843</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43854</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43878</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43880</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43906</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>43912</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>43915</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43948</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43955</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43983</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43984</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44012</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44020</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44036</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44036</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44047</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44049</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>44053</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>44068</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44071</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>44074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44083</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>44088</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>44097</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>44098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44098</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>44129</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>44151</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         <v>44165</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         <v>44168</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>44168</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>44169</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44176</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44176</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44179</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44188</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44208</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44239</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44239</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44239</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44239</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44250</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>44256</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>44308</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>44323</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44334</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44337</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44343</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>44371</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44377</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44383</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44384</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44391</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44403</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44411</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44414</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44418</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44425</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44440</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44440</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44447</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44460</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44462</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44462</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44462</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44462</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44488</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44488</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44492</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44496</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44503</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44509</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44517</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>44518</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>44519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44538</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44543</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>44586</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44588</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44607</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44659</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44662</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44662</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44692</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44725</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44729</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>44735</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44797</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44805</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44812</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44817</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44820</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44820</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44820</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44820</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44838</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44839</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44841</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44845</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44858</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44858</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44879</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44887</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44907</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44915</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>44929</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>44949</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44950</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44953</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44964</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44970</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44986</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>45022</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45022</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45022</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45022</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45033</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45033</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>45044</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>45056</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>45056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>45058</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>45062</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45063</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45069</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45069</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45072</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45073</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>45107</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45128</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>45134</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>45134</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45134</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45160</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45162</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>45162</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>

--- a/Översikt OCKELBO.xlsx
+++ b/Översikt OCKELBO.xlsx
@@ -572,7 +572,7 @@
         <v>44088</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45068</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43518</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43787</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44047</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>44462</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43383</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43391</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43411</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43420</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43420</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43420</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43448</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43483</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43490</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43490</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43502</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43507</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43528</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43553</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43553</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43579</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43623</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43647</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43647</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43647</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43649</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43650</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43650</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43668</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43675</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>43691</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>43696</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>43697</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43699</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43713</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43721</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43732</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43747</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43748</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43748</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43748</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43748</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43753</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43755</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43756</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43762</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43766</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43766</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43766</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43796</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43796</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>43797</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43808</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43808</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43837</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>43840</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43840</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43843</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43854</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43878</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43880</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43906</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>43912</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>43915</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43948</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43955</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43983</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43984</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44012</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44020</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44036</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44036</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44047</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44049</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>44053</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>44068</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44071</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>44074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44083</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>44088</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>44097</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>44098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44098</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>44129</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>44151</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         <v>44165</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         <v>44168</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>44168</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>44169</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44176</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44176</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44179</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44188</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44208</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44239</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44239</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44239</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44239</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44250</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>44256</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>44308</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>44323</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44334</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44337</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44343</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>44371</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44377</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44383</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44384</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44391</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44403</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44411</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44414</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44418</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44425</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44440</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44440</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44447</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44460</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44462</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44462</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44462</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44462</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44488</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44488</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44492</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44496</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44503</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44509</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44517</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>44518</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>44519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44538</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44543</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>44586</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44588</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44607</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44659</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44662</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44662</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44692</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44725</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44729</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>44735</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44797</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44805</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44812</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44817</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44820</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44820</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44820</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44820</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44838</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44839</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44841</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44845</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44858</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44858</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44879</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44887</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44907</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44915</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>44929</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>44949</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44950</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44953</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44964</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44970</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44986</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>45022</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45022</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45022</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45022</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45033</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45033</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>45044</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>45056</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>45056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>45058</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>45062</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45063</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45069</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45069</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45072</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45073</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>45107</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45128</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>45134</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>45134</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45134</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45160</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45162</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>45162</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>

--- a/Översikt OCKELBO.xlsx
+++ b/Översikt OCKELBO.xlsx
@@ -572,7 +572,7 @@
         <v>44088</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -626,27 +626,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/artfynd/A 45074-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/artfynd/A 45074-2020.xlsx", "A 45074-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/kartor/A 45074-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/kartor/A 45074-2020.png", "A 45074-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomål/A 45074-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomål/A 45074-2020.docx", "A 45074-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomålsmail/A 45074-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomålsmail/A 45074-2020.docx", "A 45074-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsyn/A 45074-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsyn/A 45074-2020.docx", "A 45074-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsynsmail/A 45074-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsynsmail/A 45074-2020.docx", "A 45074-2020")</f>
         <v/>
       </c>
     </row>
@@ -660,7 +660,7 @@
         <v>43747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -712,27 +712,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/artfynd/A 52965-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/artfynd/A 52965-2019.xlsx", "A 52965-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/kartor/A 52965-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/kartor/A 52965-2019.png", "A 52965-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomål/A 52965-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomål/A 52965-2019.docx", "A 52965-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomålsmail/A 52965-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomålsmail/A 52965-2019.docx", "A 52965-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsyn/A 52965-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsyn/A 52965-2019.docx", "A 52965-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsynsmail/A 52965-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsynsmail/A 52965-2019.docx", "A 52965-2019")</f>
         <v/>
       </c>
     </row>
@@ -746,7 +746,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -798,27 +798,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/artfynd/A 59286-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/artfynd/A 59286-2019.xlsx", "A 59286-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/kartor/A 59286-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/kartor/A 59286-2019.png", "A 59286-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomål/A 59286-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomål/A 59286-2019.docx", "A 59286-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomålsmail/A 59286-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomålsmail/A 59286-2019.docx", "A 59286-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsyn/A 59286-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsyn/A 59286-2019.docx", "A 59286-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsynsmail/A 59286-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsynsmail/A 59286-2019.docx", "A 59286-2019")</f>
         <v/>
       </c>
     </row>
@@ -832,7 +832,7 @@
         <v>45068</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -889,27 +889,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/artfynd/A 21956-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/artfynd/A 21956-2023.xlsx", "A 21956-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/kartor/A 21956-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/kartor/A 21956-2023.png", "A 21956-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomål/A 21956-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomål/A 21956-2023.docx", "A 21956-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomålsmail/A 21956-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomålsmail/A 21956-2023.docx", "A 21956-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsyn/A 21956-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsyn/A 21956-2023.docx", "A 21956-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsynsmail/A 21956-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsynsmail/A 21956-2023.docx", "A 21956-2023")</f>
         <v/>
       </c>
     </row>
@@ -923,7 +923,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -974,27 +974,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/artfynd/A 5605-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/artfynd/A 5605-2019.xlsx", "A 5605-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/kartor/A 5605-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/kartor/A 5605-2019.png", "A 5605-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomål/A 5605-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomål/A 5605-2019.docx", "A 5605-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomålsmail/A 5605-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomålsmail/A 5605-2019.docx", "A 5605-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsyn/A 5605-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsyn/A 5605-2019.docx", "A 5605-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsynsmail/A 5605-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsynsmail/A 5605-2019.docx", "A 5605-2019")</f>
         <v/>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
         <v>43518</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1059,27 +1059,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/artfynd/A 11693-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/artfynd/A 11693-2019.xlsx", "A 11693-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/kartor/A 11693-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/kartor/A 11693-2019.png", "A 11693-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomål/A 11693-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomål/A 11693-2019.docx", "A 11693-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomålsmail/A 11693-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomålsmail/A 11693-2019.docx", "A 11693-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsyn/A 11693-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsyn/A 11693-2019.docx", "A 11693-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsynsmail/A 11693-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsynsmail/A 11693-2019.docx", "A 11693-2019")</f>
         <v/>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
         <v>43787</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1149,27 +1149,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/artfynd/A 62064-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/artfynd/A 62064-2019.xlsx", "A 62064-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/kartor/A 62064-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/kartor/A 62064-2019.png", "A 62064-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomål/A 62064-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomål/A 62064-2019.docx", "A 62064-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomålsmail/A 62064-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomålsmail/A 62064-2019.docx", "A 62064-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsyn/A 62064-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsyn/A 62064-2019.docx", "A 62064-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsynsmail/A 62064-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsynsmail/A 62064-2019.docx", "A 62064-2019")</f>
         <v/>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
         <v>43837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1234,27 +1234,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/artfynd/A 326-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/artfynd/A 326-2020.xlsx", "A 326-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/kartor/A 326-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/kartor/A 326-2020.png", "A 326-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomål/A 326-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomål/A 326-2020.docx", "A 326-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomålsmail/A 326-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomålsmail/A 326-2020.docx", "A 326-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsyn/A 326-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsyn/A 326-2020.docx", "A 326-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsynsmail/A 326-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsynsmail/A 326-2020.docx", "A 326-2020")</f>
         <v/>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1319,27 +1319,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/artfynd/A 25565-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/artfynd/A 25565-2020.xlsx", "A 25565-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/kartor/A 25565-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/kartor/A 25565-2020.png", "A 25565-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomål/A 25565-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomål/A 25565-2020.docx", "A 25565-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomålsmail/A 25565-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomålsmail/A 25565-2020.docx", "A 25565-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsyn/A 25565-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsyn/A 25565-2020.docx", "A 25565-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsynsmail/A 25565-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsynsmail/A 25565-2020.docx", "A 25565-2020")</f>
         <v/>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
         <v>44047</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1404,31 +1404,31 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/artfynd/A 35878-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/artfynd/A 35878-2020.xlsx", "A 35878-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/kartor/A 35878-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/kartor/A 35878-2020.png", "A 35878-2020")</f>
         <v/>
       </c>
       <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/knärot/A 35878-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/knärot/A 35878-2020.png", "A 35878-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomål/A 35878-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomål/A 35878-2020.docx", "A 35878-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomålsmail/A 35878-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomålsmail/A 35878-2020.docx", "A 35878-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsyn/A 35878-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsyn/A 35878-2020.docx", "A 35878-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsynsmail/A 35878-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsynsmail/A 35878-2020.docx", "A 35878-2020")</f>
         <v/>
       </c>
     </row>
@@ -1442,7 +1442,7 @@
         <v>44462</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1498,27 +1498,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/artfynd/A 51574-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/artfynd/A 51574-2021.xlsx", "A 51574-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/kartor/A 51574-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/kartor/A 51574-2021.png", "A 51574-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomål/A 51574-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomål/A 51574-2021.docx", "A 51574-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomålsmail/A 51574-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomålsmail/A 51574-2021.docx", "A 51574-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsyn/A 51574-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsyn/A 51574-2021.docx", "A 51574-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsynsmail/A 51574-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsynsmail/A 51574-2021.docx", "A 51574-2021")</f>
         <v/>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43383</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43391</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43411</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43420</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43420</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43420</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43448</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43483</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43490</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43490</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43502</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43507</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43528</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43553</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43553</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43579</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43623</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43647</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43647</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43647</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43649</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43650</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43650</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43668</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43675</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>43691</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>43696</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>43697</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43699</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43713</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43721</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43732</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43747</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43748</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43748</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43748</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43748</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43753</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43755</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43756</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43762</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43766</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43766</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43766</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43796</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43796</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>43797</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43808</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43808</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43837</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>43840</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43840</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43843</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43854</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43878</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43880</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43906</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>43912</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>43915</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43948</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43955</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43983</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43984</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44012</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44020</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44036</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44036</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44047</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44049</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>44053</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>44068</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44071</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>44074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44083</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>44088</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>44097</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>44098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44098</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>44129</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>44151</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         <v>44165</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         <v>44168</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>44168</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>44169</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9466,23 +9466,23 @@
       </c>
       <c r="R149" s="2" t="inlineStr"/>
       <c r="U149">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/knärot/A 65684-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/knärot/A 65684-2020.png", "A 65684-2020")</f>
         <v/>
       </c>
       <c r="V149">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomål/A 65684-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomål/A 65684-2020.docx", "A 65684-2020")</f>
         <v/>
       </c>
       <c r="W149">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomålsmail/A 65684-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/klagomålsmail/A 65684-2020.docx", "A 65684-2020")</f>
         <v/>
       </c>
       <c r="X149">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsyn/A 65684-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsyn/A 65684-2020.docx", "A 65684-2020")</f>
         <v/>
       </c>
       <c r="Y149">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsynsmail/A 65684-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OCKELBO/tillsynsmail/A 65684-2020.docx", "A 65684-2020")</f>
         <v/>
       </c>
     </row>
@@ -9496,7 +9496,7 @@
         <v>44176</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44176</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44179</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44188</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44208</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44239</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44239</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44239</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44239</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44250</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>44256</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>44308</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>44323</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44334</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44337</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44343</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>44371</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44377</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44383</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44384</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44391</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44403</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44411</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44414</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44418</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44425</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44440</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44440</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44447</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44460</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44462</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44462</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44462</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44462</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44488</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44488</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44492</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44496</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44503</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44509</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44517</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>44518</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>44519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44538</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44543</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>44586</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44588</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44607</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44659</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44662</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44662</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44692</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44725</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44729</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>44735</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44797</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44805</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44812</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44817</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44820</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44820</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44820</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44820</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44838</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44839</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44841</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44845</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44858</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44858</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44879</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44887</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44907</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44915</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>44929</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>44949</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44950</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44953</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44964</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44970</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44986</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>45022</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45022</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45022</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45022</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45033</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45033</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>45044</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>45056</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>45056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>45058</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>45062</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45063</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45069</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45069</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45072</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45073</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>45107</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45128</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>45134</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>45134</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45134</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45160</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45162</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>45162</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>

--- a/Översikt OCKELBO.xlsx
+++ b/Översikt OCKELBO.xlsx
@@ -572,7 +572,7 @@
         <v>44088</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45068</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43518</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43787</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44047</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>44462</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43383</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43391</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43411</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43420</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43420</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43420</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43448</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43483</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43490</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43490</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43502</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43507</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43528</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43553</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43553</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43579</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43623</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43647</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43647</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43647</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43649</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43650</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43650</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43668</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43675</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>43691</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>43696</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>43697</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43699</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43713</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43721</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43732</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43747</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43748</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43748</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43748</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43748</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43753</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43755</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43756</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43762</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43766</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43766</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43766</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43796</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43796</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>43797</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43808</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43808</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43837</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>43840</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43840</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43843</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43854</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43878</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43880</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43906</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>43912</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>43915</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43948</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43955</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43983</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43984</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44012</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44020</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44036</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44036</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44047</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44049</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>44053</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>44068</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44071</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>44074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44083</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>44088</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>44097</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>44098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44098</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>44129</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>44151</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         <v>44165</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         <v>44168</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>44168</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>44169</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44176</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44176</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44179</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44188</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44208</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44239</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44239</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44239</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44239</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44250</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>44256</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>44308</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>44323</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44334</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44337</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44343</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>44371</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44377</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44383</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44384</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44391</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44403</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44411</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44414</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44418</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44425</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44440</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44440</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44447</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44460</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44462</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44462</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44462</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44462</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44488</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44488</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44492</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44496</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44503</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44509</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44517</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>44518</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>44519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44538</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44543</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>44586</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44588</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44607</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44659</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44662</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44662</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44692</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44725</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44729</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>44735</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44797</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44805</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44812</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44817</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44820</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44820</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44820</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44820</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44838</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44839</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44841</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44845</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44858</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44858</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44879</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44887</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44907</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44915</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>44929</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>44949</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44950</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44953</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44964</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44970</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44986</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>45022</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45022</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45022</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45022</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45033</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45033</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>45044</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>45056</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>45056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>45058</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>45062</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45063</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45069</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45069</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45072</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45073</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>45107</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45128</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>45134</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>45134</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45134</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45160</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45162</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>45162</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>

--- a/Översikt OCKELBO.xlsx
+++ b/Översikt OCKELBO.xlsx
@@ -572,7 +572,7 @@
         <v>44088</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45068</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43518</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43787</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44047</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>44462</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43383</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43391</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43411</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43420</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43420</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43420</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43448</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43483</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43490</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43490</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43502</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43507</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43528</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43553</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43553</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43579</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43623</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43647</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43647</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43647</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43649</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43650</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43650</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43668</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43675</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>43691</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>43696</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>43697</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43699</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43713</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43721</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43732</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43747</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43748</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43748</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43748</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43748</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43753</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43755</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43756</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43762</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43766</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43766</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43766</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43796</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43796</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>43797</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43808</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43808</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43837</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>43840</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43840</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43843</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43854</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43878</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43880</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43906</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>43912</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>43915</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43948</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43955</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43983</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43984</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44012</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44020</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44036</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44036</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44047</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44049</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>44053</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>44068</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44071</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>44074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44083</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>44088</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>44097</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>44098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44098</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>44129</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>44151</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         <v>44165</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         <v>44168</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>44168</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>44169</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44176</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44176</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44179</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44188</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44208</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44239</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44239</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44239</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44239</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44250</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>44256</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>44308</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>44323</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44334</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44337</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44343</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>44371</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44377</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44383</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44384</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44391</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44403</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44411</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44414</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44418</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44425</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44440</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44440</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44447</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44460</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44462</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44462</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44462</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44462</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44488</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44488</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44492</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44496</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44503</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44509</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44517</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>44518</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>44519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44538</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44543</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>44586</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44588</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44607</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44659</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44662</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44662</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44692</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44725</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44729</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>44735</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44797</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44805</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44812</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44817</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44820</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44820</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44820</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44820</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44838</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44839</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44841</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44845</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44858</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44858</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44879</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44887</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44907</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44915</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>44929</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>44949</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44950</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44953</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44964</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44970</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44986</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>45022</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45022</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45022</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45022</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45033</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45033</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>45044</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>45056</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>45056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>45058</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>45062</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45063</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45069</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45069</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45072</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45073</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>45107</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45128</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>45134</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>45134</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45134</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45160</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45162</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>45162</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>

--- a/Översikt OCKELBO.xlsx
+++ b/Översikt OCKELBO.xlsx
@@ -572,7 +572,7 @@
         <v>44088</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45068</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43518</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43787</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44047</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>44462</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43383</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43391</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43411</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43420</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43420</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43420</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43448</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43483</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43490</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43490</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43502</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43507</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43528</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43553</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43553</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43579</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43623</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43647</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43647</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43647</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43649</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43650</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43650</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43668</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43675</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>43691</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>43696</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>43697</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43699</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43713</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43721</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43732</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43747</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43748</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43748</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43748</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43748</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43753</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43755</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43756</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43762</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43766</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43766</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43766</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43796</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43796</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>43797</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43808</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43808</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43837</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>43840</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43840</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43843</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43854</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43878</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43880</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43906</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>43912</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>43915</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43948</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43955</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43983</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43984</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44012</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44020</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44036</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44036</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44047</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44049</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>44053</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>44068</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44071</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>44074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44083</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>44088</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>44097</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>44098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44098</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>44129</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>44151</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         <v>44165</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         <v>44168</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>44168</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>44169</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44176</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44176</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44179</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44188</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44208</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44239</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44239</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44239</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44239</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44250</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>44256</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>44308</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>44323</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44334</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44337</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44343</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>44371</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44377</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44383</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44384</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44391</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44403</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44411</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44414</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44418</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44425</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44440</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44440</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44447</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44460</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44462</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44462</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44462</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44462</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44488</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44488</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44492</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44496</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44503</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44509</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44517</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>44518</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>44519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44538</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44543</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>44586</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44588</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44607</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44659</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44662</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44662</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44692</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44725</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44729</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>44735</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44797</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44805</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44812</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44817</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44820</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44820</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44820</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44820</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44838</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44839</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44841</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44845</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44858</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44858</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44879</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44887</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44907</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44915</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>44929</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>44949</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44950</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44953</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44964</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44970</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44986</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>45022</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45022</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45022</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45022</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45033</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45033</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>45044</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>45056</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>45056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>45058</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>45062</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45063</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45069</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45069</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45072</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45073</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>45107</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45128</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>45134</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>45134</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45134</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45160</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45162</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>45162</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>

--- a/Översikt OCKELBO.xlsx
+++ b/Översikt OCKELBO.xlsx
@@ -572,7 +572,7 @@
         <v>44088</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45068</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43518</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43787</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44047</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>44462</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43383</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43391</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43411</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43420</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43420</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43420</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43448</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43483</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43490</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43490</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43502</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43507</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43528</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43553</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43553</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43579</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43623</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43647</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43647</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43647</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43649</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43650</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43650</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43668</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43675</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>43691</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>43696</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>43697</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43699</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43713</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43721</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43732</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43747</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43748</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43748</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43748</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43748</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43753</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43755</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43756</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43762</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43766</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43766</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43766</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43796</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43796</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>43797</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43808</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43808</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43837</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>43840</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43840</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43843</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43854</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43878</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43880</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43906</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>43912</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>43915</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43948</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43955</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43983</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43984</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44012</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44020</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44036</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44036</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44047</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44049</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>44053</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>44068</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44071</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>44074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44083</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>44088</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>44097</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>44098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44098</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>44129</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>44151</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         <v>44165</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         <v>44168</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>44168</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>44169</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44176</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44176</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44179</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44188</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44208</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44239</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44239</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44239</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44239</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44250</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>44256</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>44308</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>44323</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44334</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44337</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44343</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>44371</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44377</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44383</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44384</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44391</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44403</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44411</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44414</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44418</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44425</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44440</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44440</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44447</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44460</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44462</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44462</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44462</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44462</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44488</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44488</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44492</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44496</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44503</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44509</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44517</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>44518</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>44519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44538</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44543</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>44586</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44588</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44607</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44659</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44662</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44662</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44692</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44725</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44729</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>44735</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44797</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44805</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44812</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44817</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44820</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44820</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44820</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44820</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44838</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44839</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44841</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44845</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44858</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44858</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44879</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44887</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44907</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44915</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>44929</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>44949</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44950</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44953</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44964</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44970</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44986</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>45022</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45022</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45022</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45022</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45033</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45033</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>45044</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>45056</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>45056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>45058</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>45062</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45063</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45069</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45069</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45072</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45073</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>45107</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45128</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>45134</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>45134</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45134</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45160</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45162</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>45162</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>

--- a/Översikt OCKELBO.xlsx
+++ b/Översikt OCKELBO.xlsx
@@ -572,7 +572,7 @@
         <v>44088</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45068</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43518</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43787</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44047</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>44462</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43383</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43391</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43411</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43420</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43420</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43420</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43448</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43483</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43490</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43490</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43502</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43507</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43528</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43553</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43553</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43579</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43623</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43647</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43647</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43647</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43649</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43650</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43650</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43668</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43675</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>43691</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>43696</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>43697</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43699</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43713</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43721</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43732</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43747</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43748</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43748</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43748</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43748</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43753</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43755</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43756</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43762</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43766</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43766</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43766</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43796</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43796</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>43797</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43808</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43808</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43837</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>43840</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43840</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43843</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43854</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43878</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43880</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43906</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>43912</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>43915</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43948</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43955</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43983</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43984</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44012</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44020</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44036</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44036</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44047</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44049</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>44053</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>44068</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44071</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>44074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44083</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>44088</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>44097</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>44098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44098</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>44129</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>44151</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         <v>44165</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         <v>44168</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>44168</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>44169</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44176</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44176</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44179</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44188</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44208</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44239</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44239</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44239</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44239</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44250</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>44256</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>44308</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>44323</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44334</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44337</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44343</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>44371</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44377</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44383</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44384</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44391</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44403</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44411</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44414</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44418</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44425</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44440</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44440</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44447</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44460</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44462</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44462</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44462</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44462</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44488</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44488</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44492</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44496</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44503</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44509</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44517</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>44518</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>44519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44538</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44543</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>44586</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44588</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44607</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44659</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44662</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44662</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44692</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44725</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44729</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>44735</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44797</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44805</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44812</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44817</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44820</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44820</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44820</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44820</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44838</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44839</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44841</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44845</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44858</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44858</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44879</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44887</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44907</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44915</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>44929</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>44949</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44950</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44953</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44964</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44970</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44986</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>45022</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45022</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45022</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45022</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45033</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45033</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>45044</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>45056</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>45056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>45058</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>45062</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45063</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45069</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45069</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45072</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45073</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>45107</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45128</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>45134</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>45134</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45134</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45160</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45162</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>45162</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>

--- a/Översikt OCKELBO.xlsx
+++ b/Översikt OCKELBO.xlsx
@@ -572,7 +572,7 @@
         <v>44088</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45068</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43518</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43787</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44047</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>44462</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43383</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43391</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43411</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43420</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43420</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43420</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43448</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43483</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43490</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43490</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43502</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43507</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43528</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43553</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43553</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43579</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43623</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43647</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43647</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43647</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43649</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43650</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43650</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43668</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43675</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>43691</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>43696</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>43697</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43699</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43713</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43721</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43732</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43747</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43748</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43748</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43748</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43748</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43753</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43755</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43756</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43762</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43766</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43766</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43766</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43796</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43796</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>43797</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43808</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43808</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43837</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>43840</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43840</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43843</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43854</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43878</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43880</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43906</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>43912</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>43915</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43948</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43955</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43983</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43984</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44012</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44020</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44036</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44036</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44047</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44049</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>44053</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>44068</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44071</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>44074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44083</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>44088</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>44097</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>44098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44098</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>44129</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>44151</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         <v>44165</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         <v>44168</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>44168</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>44169</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44176</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44176</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44179</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44188</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44208</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44239</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44239</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44239</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44239</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44250</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>44256</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>44308</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>44323</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44334</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44337</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44343</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>44371</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44377</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44383</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44384</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44391</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44403</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44411</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44414</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44418</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44425</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44440</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44440</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44447</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44460</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44462</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44462</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44462</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44462</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44488</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44488</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44492</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44496</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44503</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44509</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44517</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>44518</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>44519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44538</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44543</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>44586</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44588</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44607</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44659</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44662</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44662</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44692</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44725</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44729</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>44735</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44797</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44805</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44812</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44817</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44820</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44820</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44820</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44820</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44838</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44839</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44841</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44845</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44858</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44858</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44879</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44887</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44907</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44915</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>44929</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>44949</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44950</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44953</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44964</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44970</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44986</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>45022</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45022</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45022</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45022</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45033</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45033</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>45044</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>45056</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>45056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>45058</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>45062</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45063</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45069</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45069</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45072</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45073</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>45107</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45128</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>45134</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>45134</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45134</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45160</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45162</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>45162</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>

--- a/Översikt OCKELBO.xlsx
+++ b/Översikt OCKELBO.xlsx
@@ -572,7 +572,7 @@
         <v>44088</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45068</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43518</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43787</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44047</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>44462</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43383</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43391</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43411</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43420</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43420</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43420</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43448</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43483</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43490</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43490</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43502</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43507</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43528</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43553</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43553</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43579</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43623</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43647</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43647</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43647</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43649</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43650</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43650</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43668</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43675</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>43691</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>43696</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>43697</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43699</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43713</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43721</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43732</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43747</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43748</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43748</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43748</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43748</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43753</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43755</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43756</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43762</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43766</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43766</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43766</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43796</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43796</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>43797</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43808</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43808</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43837</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>43840</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43840</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43843</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43854</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43878</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43880</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43906</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>43912</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>43915</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43948</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43955</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43983</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43984</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44012</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44020</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44036</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44036</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44047</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44049</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>44053</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>44068</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44071</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>44074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44083</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>44088</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>44097</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>44098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44098</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>44129</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>44151</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         <v>44165</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         <v>44168</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>44168</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>44169</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44176</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44176</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44179</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44188</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44208</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44239</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44239</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44239</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44239</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44250</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>44256</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>44308</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>44323</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44334</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44337</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44343</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>44371</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44377</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44383</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44384</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44391</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44403</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44411</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44414</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44418</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44425</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44440</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44440</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44447</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44460</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44462</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44462</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44462</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44462</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44488</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44488</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44492</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44496</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44503</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44509</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44517</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>44518</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>44519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44538</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44543</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>44586</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44588</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44607</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44659</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44662</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44662</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44692</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44725</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44729</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>44735</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44797</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44805</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44812</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44817</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44820</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44820</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44820</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44820</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44838</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44839</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44841</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44845</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44858</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44858</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44879</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44887</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44907</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44915</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>44929</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>44949</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44950</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44953</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44964</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44970</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44986</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>45022</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45022</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45022</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45022</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45033</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45033</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>45044</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>45056</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>45056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>45058</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>45062</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45063</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45069</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45069</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45072</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45073</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>45107</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45128</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>45134</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>45134</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45134</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45160</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45162</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>45162</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>

--- a/Översikt OCKELBO.xlsx
+++ b/Översikt OCKELBO.xlsx
@@ -572,7 +572,7 @@
         <v>44088</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45068</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43518</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43787</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44047</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>44462</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43383</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43391</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43411</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43420</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43420</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43420</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43448</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43483</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43490</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43490</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43502</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43507</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43528</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43553</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43553</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43579</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43623</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43647</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43647</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43647</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43649</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43650</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43650</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43668</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43675</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>43691</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>43696</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>43697</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43699</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43713</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43721</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43732</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43747</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43748</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43748</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43748</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43748</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43753</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43755</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43756</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43762</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43766</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43766</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43766</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43796</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43796</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>43797</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43808</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43808</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43837</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>43840</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43840</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43843</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43854</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43878</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43880</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43906</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>43912</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>43915</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43948</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43955</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43983</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43984</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44012</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44020</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44036</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44036</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44047</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44049</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>44053</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>44068</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44071</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>44074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44083</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>44088</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>44097</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>44098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44098</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>44129</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>44151</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         <v>44165</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         <v>44168</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>44168</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>44169</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44176</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44176</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44179</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44188</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44208</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44239</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44239</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44239</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44239</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44250</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>44256</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>44308</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>44323</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44334</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44337</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44343</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>44371</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44377</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44383</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44384</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44391</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44403</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44411</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44414</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44418</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44425</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44440</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44440</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44447</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44460</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44462</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44462</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44462</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44462</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44488</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44488</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44492</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44496</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44503</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44509</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44517</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>44518</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>44519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44538</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44543</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>44586</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44588</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44607</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44659</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44662</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44662</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44692</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44725</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44729</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>44735</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44797</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44805</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44812</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44817</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44820</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44820</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44820</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44820</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44838</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44839</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44841</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44845</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44858</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44858</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44879</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44887</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44907</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44915</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>44929</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>44949</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44950</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44953</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44964</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44970</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44986</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>45022</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45022</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45022</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45022</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45033</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45033</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>45044</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>45056</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>45056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>45058</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>45062</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45063</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45069</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45069</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45072</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45073</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>45107</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45128</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>45134</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>45134</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45134</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45160</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45162</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>45162</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>

--- a/Översikt OCKELBO.xlsx
+++ b/Översikt OCKELBO.xlsx
@@ -572,7 +572,7 @@
         <v>44088</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43747</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45068</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43518</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43787</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43837</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44047</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>44462</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>43349</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43383</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43385</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43391</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43411</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43420</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43420</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>43420</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>43420</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43420</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43420</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43439</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43441</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43448</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43448</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43448</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>43451</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43483</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43483</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43490</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>43490</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>43493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43502</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43507</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43528</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43553</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>43553</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43579</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43623</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43647</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43647</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43647</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43649</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43650</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43650</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43650</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43650</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43651</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43668</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>43675</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>43691</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>43696</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>43697</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43699</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43699</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43705</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43713</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43717</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43720</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43721</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>43732</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>43747</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43748</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43748</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43748</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43748</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43753</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43755</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43756</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43762</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43766</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43766</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43766</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43796</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43796</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>43797</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43808</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43808</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43837</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>43840</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43840</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43843</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43854</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43878</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43880</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43906</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>43912</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>43915</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43948</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43955</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43983</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43984</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44012</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44020</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44036</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44036</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44047</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44049</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>44053</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>44068</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44071</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>44074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44083</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>44088</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>44097</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>44098</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44098</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44113</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>44129</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>44151</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         <v>44165</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         <v>44168</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>44168</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>44169</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44172</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44176</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44176</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44176</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44179</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44188</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44208</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44239</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44239</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44239</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>44239</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>44250</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>44256</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>44308</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>44323</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44334</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44337</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44342</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>44343</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44358</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>44371</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44377</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44383</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>44384</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>44391</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>44399</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44403</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44411</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44414</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44418</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44425</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44440</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44440</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44447</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44460</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44460</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44460</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44460</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44462</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44462</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44462</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44462</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>44479</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44480</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44488</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44488</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44492</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44496</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44503</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44509</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44517</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>44518</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>44519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>44519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44538</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44543</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>44586</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44588</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44607</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44607</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44659</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44662</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44662</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44692</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>44711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44725</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44729</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>44735</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44793</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44797</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44805</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44812</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44817</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44820</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44820</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44820</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44820</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44820</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44838</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44839</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44841</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>44845</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44858</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44858</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44879</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44887</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44907</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44915</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>44929</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>44949</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44950</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44950</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44953</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44964</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44970</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>44986</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>45022</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45022</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45022</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45022</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45022</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>45027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>45027</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45033</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45033</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>45044</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>45056</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>45056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>45058</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>45062</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45063</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45069</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45069</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45072</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45073</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>45107</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45128</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45134</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>45134</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>45134</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45134</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45160</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45162</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>45162</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
